--- a/results/year_platform_03_5gen.xlsx
+++ b/results/year_platform_03_5gen.xlsx
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>11924</v>
+        <v>38930</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9669</v>
+        <v>32154</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>11925</v>
+        <v>38935</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8574</v>
+        <v>28269</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>11932</v>
+        <v>38954</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
